--- a/ky/downloads/data-excel/8.10.1.xlsx
+++ b/ky/downloads/data-excel/8.10.1.xlsx
@@ -574,11 +574,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -589,7 +587,7 @@
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -600,8 +598,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +657,11 @@
       <c r="S3" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="T3" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -671,60 +672,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="8">
-        <f>D6/D8*100000</f>
         <v>6.1074687240787666</v>
       </c>
       <c r="E4" s="8">
-        <f>E6/E8*100000</f>
         <v>6.5454292116044552</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:O4" si="0">F6/F8*100000</f>
         <v>6.6165964726065987</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>5.6930491377593775</v>
+        <v>5.6686326881838296</v>
       </c>
       <c r="H4" s="8">
-        <f>H6/H8*100000</f>
-        <v>6.7724177024599612</v>
+        <v>6.7294661864194607</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" si="0"/>
-        <v>7.2810797998488788</v>
+        <v>7.2207098269445202</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="0"/>
-        <v>7.3943858833701812</v>
+        <v>7.3191488059459031</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" si="0"/>
-        <v>7.4255079630336427</v>
+        <v>7.3364889416826751</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="0"/>
-        <v>7.8273339975765177</v>
+        <v>7.7198339498137045</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>7.9484099132372181</v>
+        <v>7.8258279858854918</v>
       </c>
       <c r="N4" s="8">
-        <f t="shared" si="0"/>
-        <v>7.7104766766540305</v>
+        <v>7.5789073543911334</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>7.6409687320133743</v>
+        <v>7.4985248229203512</v>
       </c>
       <c r="P4" s="8">
-        <f>P6/P8*100000</f>
-        <v>7.5665735486175771</v>
+        <v>7.4141082446031374</v>
       </c>
       <c r="Q4" s="8">
-        <f>Q6/Q8*100000</f>
-        <v>7.1928895520282214</v>
+        <v>7.0384645318913508</v>
       </c>
       <c r="R4" s="8">
         <v>6.9132648934880807</v>
@@ -732,8 +719,11 @@
       <c r="S4" s="8">
         <v>6.9031689452913012</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+      <c r="T4" s="8">
+        <v>6.7904451646088795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -744,60 +734,46 @@
         <v>20</v>
       </c>
       <c r="D5" s="8">
-        <f>D7/D8*100000</f>
         <v>2.4713943209062914</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" ref="E5:O5" si="1">E7/E8*100000</f>
         <v>4.8880029305544008</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
         <v>8.7206187818873584</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="1"/>
-        <v>7.5547571496332981</v>
+        <v>7.5223561738932325</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
-        <v>12.265008437525914</v>
+        <v>12.187222227373827</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="1"/>
-        <v>15.976470064416604</v>
+        <v>15.844003577108481</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="1"/>
-        <v>21.075287988142186</v>
+        <v>20.86084920997822</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="1"/>
-        <v>25.292344529377388</v>
+        <v>24.989132982250201</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="1"/>
-        <v>30.810779684727947</v>
+        <v>30.387626630476873</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="1"/>
-        <v>31.891768170396244</v>
+        <v>31.39992710386154</v>
       </c>
       <c r="N5" s="8">
-        <f>N7/N8*100000</f>
-        <v>34.153302646119577</v>
+        <v>33.570520663807748</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="1"/>
-        <v>37.681163560053491</v>
+        <v>36.978706525491944</v>
       </c>
       <c r="P5" s="8">
-        <f>P7/P8*100000</f>
-        <v>40.105182400103075</v>
+        <v>39.297069085946042</v>
       </c>
       <c r="Q5" s="8">
-        <f>Q7/Q8*100000</f>
-        <v>42.788471181296089</v>
+        <v>41.869840292276756</v>
       </c>
       <c r="R5" s="8">
         <v>42.321589572314856</v>
@@ -805,8 +781,11 @@
       <c r="S5" s="8">
         <v>44.306188104841333</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="8">
+        <v>47.957518975050206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -864,8 +843,11 @@
       <c r="S6" s="17">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -923,8 +905,11 @@
       <c r="S7" s="17">
         <v>2041</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="17">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -944,37 +929,37 @@
         <v>3612129</v>
       </c>
       <c r="G8" s="9">
-        <v>3706274</v>
+        <v>3722238</v>
       </c>
       <c r="H8" s="9">
-        <v>3750507</v>
+        <v>3774445</v>
       </c>
       <c r="I8" s="9">
-        <v>3818115</v>
+        <v>3850037</v>
       </c>
       <c r="J8" s="9">
-        <v>3881323</v>
+        <v>3921221</v>
       </c>
       <c r="K8" s="9">
-        <v>3945858</v>
+        <v>3993736</v>
       </c>
       <c r="L8" s="9">
-        <v>4011583</v>
+        <v>4067445</v>
       </c>
       <c r="M8" s="9">
-        <v>4076287</v>
+        <v>4140137</v>
       </c>
       <c r="N8" s="9">
-        <v>4137228</v>
+        <v>4209050</v>
       </c>
       <c r="O8" s="9">
-        <v>4201038</v>
+        <v>4280842</v>
       </c>
       <c r="P8" s="9">
-        <v>4268775</v>
+        <v>4356559</v>
       </c>
       <c r="Q8" s="9">
-        <v>4337617</v>
+        <v>4432785</v>
       </c>
       <c r="R8" s="9">
         <v>4513063</v>
@@ -982,8 +967,11 @@
       <c r="S8" s="9">
         <v>4606580</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="9">
+        <v>4712504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +993,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1021,7 +1009,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1038,7 +1026,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1054,7 +1042,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1070,7 +1058,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1086,7 +1074,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1102,7 +1090,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
